--- a/Freelancing/Profit and loss statement template xls.xlsx
+++ b/Freelancing/Profit and loss statement template xls.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F4EAD-47E8-48DD-9045-290B48C47C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="6615" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit and loss statement" sheetId="1" r:id="rId1"/>
@@ -13,10 +14,19 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Profit and loss statement'!$B$2:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -373,7 +383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
@@ -555,8 +565,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -574,16 +584,16 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -593,16 +603,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,6 +650,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="business.gov.au">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
@@ -957,14 +972,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,21 +1080,45 @@
       <c r="C5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="D5" s="18">
+        <v>15000</v>
+      </c>
+      <c r="E5" s="18">
+        <v>15000</v>
+      </c>
+      <c r="F5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>50000</v>
+      </c>
+      <c r="J5" s="18">
+        <v>50000</v>
+      </c>
+      <c r="K5" s="18">
+        <v>70000</v>
+      </c>
+      <c r="L5" s="18">
+        <v>70000</v>
+      </c>
+      <c r="M5" s="18">
+        <v>90000</v>
+      </c>
+      <c r="N5" s="18">
+        <v>90000</v>
+      </c>
+      <c r="O5" s="18">
+        <v>90000</v>
+      </c>
       <c r="P5" s="10">
         <f>SUM(D5:O5)</f>
-        <v>0</v>
+        <v>630000</v>
       </c>
       <c r="Q5" s="2"/>
     </row>
@@ -1136,55 +1175,55 @@
       </c>
       <c r="D8" s="9">
         <f>D5-D6-D7</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" ref="E8:H8" si="1">E5-E6-E7</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="F8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" ref="I8" si="2">I5-I6-I7</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" ref="J8" si="3">J5-J6-J7</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="K8" s="9">
         <f t="shared" ref="K8" si="4">K5-K6-K7</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="L8" s="9">
         <f t="shared" ref="L8" si="5">L5-L6-L7</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" ref="M8" si="6">M5-M6-M7</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="N8" s="9">
         <f t="shared" ref="N8" si="7">N5-N6-N7</f>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="O8" s="9">
-        <f t="shared" ref="O8" si="8">O5-O6-O7</f>
-        <v>0</v>
+        <f>O5-O6-O7</f>
+        <v>90000</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>630000</v>
       </c>
       <c r="Q8" s="2"/>
     </row>
@@ -1213,21 +1252,45 @@
       <c r="C10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="D10" s="18">
+        <v>100</v>
+      </c>
+      <c r="E10" s="18">
+        <v>100</v>
+      </c>
+      <c r="F10" s="18">
+        <v>100</v>
+      </c>
+      <c r="G10" s="18">
+        <v>100</v>
+      </c>
+      <c r="H10" s="18">
+        <v>100</v>
+      </c>
+      <c r="I10" s="18">
+        <v>100</v>
+      </c>
+      <c r="J10" s="18">
+        <v>100</v>
+      </c>
+      <c r="K10" s="18">
+        <v>100</v>
+      </c>
+      <c r="L10" s="18">
+        <v>100</v>
+      </c>
+      <c r="M10" s="18">
+        <v>100</v>
+      </c>
+      <c r="N10" s="18">
+        <v>100</v>
+      </c>
+      <c r="O10" s="18">
+        <v>100</v>
+      </c>
       <c r="P10" s="9">
         <f>SUM(D10:O10)</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="Q10" s="2"/>
     </row>
@@ -1236,21 +1299,45 @@
       <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="D11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1500</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1500</v>
+      </c>
       <c r="P11" s="9">
-        <f t="shared" ref="P11:P27" si="9">SUM(D11:O11)</f>
-        <v>0</v>
+        <f t="shared" ref="P11:P27" si="8">SUM(D11:O11)</f>
+        <v>18000</v>
       </c>
       <c r="Q11" s="2"/>
     </row>
@@ -1259,21 +1346,45 @@
       <c r="C12" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="D12" s="18">
+        <v>22</v>
+      </c>
+      <c r="E12" s="18">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18">
+        <v>22</v>
+      </c>
+      <c r="G12" s="18">
+        <v>22</v>
+      </c>
+      <c r="H12" s="18">
+        <v>22</v>
+      </c>
+      <c r="I12" s="18">
+        <v>22</v>
+      </c>
+      <c r="J12" s="18">
+        <v>22</v>
+      </c>
+      <c r="K12" s="18">
+        <v>22</v>
+      </c>
+      <c r="L12" s="18">
+        <v>22</v>
+      </c>
+      <c r="M12" s="18">
+        <v>22</v>
+      </c>
+      <c r="N12" s="18">
+        <v>22</v>
+      </c>
+      <c r="O12" s="18">
+        <v>22</v>
+      </c>
       <c r="P12" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(D12:O12)</f>
+        <v>264</v>
       </c>
       <c r="Q12" s="2"/>
     </row>
@@ -1295,7 +1406,7 @@
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q13" s="2"/>
@@ -1305,21 +1416,45 @@
       <c r="C14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="D14" s="18">
+        <v>25</v>
+      </c>
+      <c r="E14" s="18">
+        <v>25</v>
+      </c>
+      <c r="F14" s="18">
+        <v>25</v>
+      </c>
+      <c r="G14" s="18">
+        <v>25</v>
+      </c>
+      <c r="H14" s="18">
+        <v>25</v>
+      </c>
+      <c r="I14" s="18">
+        <v>25</v>
+      </c>
+      <c r="J14" s="18">
+        <v>25</v>
+      </c>
+      <c r="K14" s="18">
+        <v>25</v>
+      </c>
+      <c r="L14" s="18">
+        <v>25</v>
+      </c>
+      <c r="M14" s="18">
+        <v>25</v>
+      </c>
+      <c r="N14" s="18">
+        <v>25</v>
+      </c>
+      <c r="O14" s="18">
+        <v>25</v>
+      </c>
       <c r="P14" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="Q14" s="2"/>
     </row>
@@ -1328,21 +1463,45 @@
       <c r="C15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="D15" s="18">
+        <v>250</v>
+      </c>
+      <c r="E15" s="18">
+        <v>250</v>
+      </c>
+      <c r="F15" s="18">
+        <v>250</v>
+      </c>
+      <c r="G15" s="18">
+        <v>250</v>
+      </c>
+      <c r="H15" s="18">
+        <v>250</v>
+      </c>
+      <c r="I15" s="18">
+        <v>250</v>
+      </c>
+      <c r="J15" s="18">
+        <v>250</v>
+      </c>
+      <c r="K15" s="18">
+        <v>250</v>
+      </c>
+      <c r="L15" s="18">
+        <v>250</v>
+      </c>
+      <c r="M15" s="18">
+        <v>250</v>
+      </c>
+      <c r="N15" s="18">
+        <v>250</v>
+      </c>
+      <c r="O15" s="18">
+        <v>250</v>
+      </c>
       <c r="P15" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3000</v>
       </c>
       <c r="Q15" s="2"/>
     </row>
@@ -1351,21 +1510,45 @@
       <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="D16" s="18">
+        <v>50</v>
+      </c>
+      <c r="E16" s="18">
+        <v>50</v>
+      </c>
+      <c r="F16" s="18">
+        <v>50</v>
+      </c>
+      <c r="G16" s="18">
+        <v>50</v>
+      </c>
+      <c r="H16" s="18">
+        <v>50</v>
+      </c>
+      <c r="I16" s="18">
+        <v>50</v>
+      </c>
+      <c r="J16" s="18">
+        <v>50</v>
+      </c>
+      <c r="K16" s="18">
+        <v>50</v>
+      </c>
+      <c r="L16" s="18">
+        <v>50</v>
+      </c>
+      <c r="M16" s="18">
+        <v>50</v>
+      </c>
+      <c r="N16" s="18">
+        <v>50</v>
+      </c>
+      <c r="O16" s="18">
+        <v>50</v>
+      </c>
       <c r="P16" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>600</v>
       </c>
       <c r="Q16" s="2"/>
     </row>
@@ -1374,8 +1557,12 @@
       <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="D17" s="18">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="18">
+        <v>20000</v>
+      </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
@@ -1387,8 +1574,8 @@
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>35000</v>
       </c>
       <c r="Q17" s="2"/>
     </row>
@@ -1397,21 +1584,45 @@
       <c r="C18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="D18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="E18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="G18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="H18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="J18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="K18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="L18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="M18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="N18" s="18">
+        <v>4000</v>
+      </c>
+      <c r="O18" s="18">
+        <v>4000</v>
+      </c>
       <c r="P18" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>48000</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
@@ -1420,21 +1631,45 @@
       <c r="C19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="D19" s="18">
+        <v>300</v>
+      </c>
+      <c r="E19" s="18">
+        <v>300</v>
+      </c>
+      <c r="F19" s="18">
+        <v>300</v>
+      </c>
+      <c r="G19" s="18">
+        <v>300</v>
+      </c>
+      <c r="H19" s="18">
+        <v>300</v>
+      </c>
+      <c r="I19" s="18">
+        <v>300</v>
+      </c>
+      <c r="J19" s="18">
+        <v>300</v>
+      </c>
+      <c r="K19" s="18">
+        <v>300</v>
+      </c>
+      <c r="L19" s="18">
+        <v>300</v>
+      </c>
+      <c r="M19" s="18">
+        <v>300</v>
+      </c>
+      <c r="N19" s="18">
+        <v>300</v>
+      </c>
+      <c r="O19" s="18">
+        <v>300</v>
+      </c>
       <c r="P19" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>3600</v>
       </c>
       <c r="Q19" s="2"/>
     </row>
@@ -1443,21 +1678,45 @@
       <c r="C20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="D20" s="18">
+        <v>400</v>
+      </c>
+      <c r="E20" s="18">
+        <v>400</v>
+      </c>
+      <c r="F20" s="18">
+        <v>400</v>
+      </c>
+      <c r="G20" s="18">
+        <v>400</v>
+      </c>
+      <c r="H20" s="18">
+        <v>400</v>
+      </c>
+      <c r="I20" s="18">
+        <v>400</v>
+      </c>
+      <c r="J20" s="18">
+        <v>400</v>
+      </c>
+      <c r="K20" s="18">
+        <v>400</v>
+      </c>
+      <c r="L20" s="18">
+        <v>400</v>
+      </c>
+      <c r="M20" s="18">
+        <v>400</v>
+      </c>
+      <c r="N20" s="18">
+        <v>400</v>
+      </c>
+      <c r="O20" s="18">
+        <v>400</v>
+      </c>
       <c r="P20" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>4800</v>
       </c>
       <c r="Q20" s="2"/>
     </row>
@@ -1466,21 +1725,45 @@
       <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="D21" s="18">
+        <v>500</v>
+      </c>
+      <c r="E21" s="18">
+        <v>500</v>
+      </c>
+      <c r="F21" s="18">
+        <v>500</v>
+      </c>
+      <c r="G21" s="18">
+        <v>500</v>
+      </c>
+      <c r="H21" s="18">
+        <v>500</v>
+      </c>
+      <c r="I21" s="18">
+        <v>500</v>
+      </c>
+      <c r="J21" s="18">
+        <v>500</v>
+      </c>
+      <c r="K21" s="18">
+        <v>500</v>
+      </c>
+      <c r="L21" s="18">
+        <v>500</v>
+      </c>
+      <c r="M21" s="18">
+        <v>500</v>
+      </c>
+      <c r="N21" s="18">
+        <v>500</v>
+      </c>
+      <c r="O21" s="18">
+        <v>500</v>
+      </c>
       <c r="P21" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>6000</v>
       </c>
       <c r="Q21" s="2"/>
     </row>
@@ -1489,21 +1772,45 @@
       <c r="C22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="D22" s="18">
+        <v>160</v>
+      </c>
+      <c r="E22" s="18">
+        <v>160</v>
+      </c>
+      <c r="F22" s="18">
+        <v>160</v>
+      </c>
+      <c r="G22" s="18">
+        <v>160</v>
+      </c>
+      <c r="H22" s="18">
+        <v>160</v>
+      </c>
+      <c r="I22" s="18">
+        <v>160</v>
+      </c>
+      <c r="J22" s="18">
+        <v>160</v>
+      </c>
+      <c r="K22" s="18">
+        <v>160</v>
+      </c>
+      <c r="L22" s="18">
+        <v>160</v>
+      </c>
+      <c r="M22" s="18">
+        <v>160</v>
+      </c>
+      <c r="N22" s="18">
+        <v>160</v>
+      </c>
+      <c r="O22" s="18">
+        <v>160</v>
+      </c>
       <c r="P22" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>1920</v>
       </c>
       <c r="Q22" s="2"/>
     </row>
@@ -1514,19 +1821,39 @@
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="F23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="J23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="K23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="M23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="N23" s="18">
+        <v>3000</v>
+      </c>
+      <c r="O23" s="18">
+        <v>3000</v>
+      </c>
       <c r="P23" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>30000</v>
       </c>
       <c r="Q23" s="2"/>
     </row>
@@ -1537,19 +1864,39 @@
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="F24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="I24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="J24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="K24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="M24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="N24" s="18">
+        <v>3000</v>
+      </c>
+      <c r="O24" s="18">
+        <v>3000</v>
+      </c>
       <c r="P24" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>30000</v>
       </c>
       <c r="Q24" s="2"/>
     </row>
@@ -1560,19 +1907,39 @@
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="F25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="H25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="I25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="J25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="K25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="L25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="M25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="N25" s="18">
+        <v>30000</v>
+      </c>
+      <c r="O25" s="18">
+        <v>30000</v>
+      </c>
       <c r="P25" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>SUM(D25:O25)</f>
+        <v>300000</v>
       </c>
       <c r="Q25" s="2"/>
     </row>
@@ -1594,7 +1961,7 @@
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q26" s="2"/>
@@ -1606,55 +1973,55 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(D10:D26)</f>
-        <v>0</v>
+        <v>22307</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" ref="E27:O27" si="10">SUM(E10:E26)</f>
-        <v>0</v>
+        <f t="shared" ref="E27:O27" si="9">SUM(E10:E26)</f>
+        <v>27307</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="G27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>43307</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>482684</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
@@ -1665,55 +2032,55 @@
       </c>
       <c r="D28" s="9">
         <f>D8-D27</f>
-        <v>0</v>
+        <v>-7307</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" ref="E28:O28" si="11">E8-E27</f>
-        <v>0</v>
+        <f t="shared" ref="E28:O28" si="10">E8-E27</f>
+        <v>-12307</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-13307</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-13307</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-13307</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>6693</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>6693</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>26693</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>26693</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>46693</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>46693</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>46693</v>
       </c>
       <c r="P28" s="9">
         <f>P8-P27</f>
-        <v>0</v>
+        <v>147316</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -1803,10 +2170,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -1829,18 +2196,18 @@
     </row>
     <row r="3" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13"/>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="24"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="2:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">

--- a/Freelancing/Profit and loss statement template xls.xlsx
+++ b/Freelancing/Profit and loss statement template xls.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41F4EAD-47E8-48DD-9045-290B48C47C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A315E75-10FA-4984-AC75-E7C5C0DA29B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="600" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profit and loss statement" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -614,6 +636,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A2:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,44 +1609,44 @@
         <v>24</v>
       </c>
       <c r="D18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="E18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="F18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="G18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="H18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="I18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="J18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="K18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="L18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="M18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="N18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="O18" s="18">
-        <v>4000</v>
+        <v>400</v>
       </c>
       <c r="P18" s="9">
         <f t="shared" si="8"/>
-        <v>48000</v>
+        <v>4800</v>
       </c>
       <c r="Q18" s="2"/>
     </row>
@@ -1973,55 +1997,55 @@
       </c>
       <c r="D27" s="9">
         <f>SUM(D10:D26)</f>
-        <v>22307</v>
+        <v>18707</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" ref="E27:O27" si="9">SUM(E10:E26)</f>
-        <v>27307</v>
+        <v>23707</v>
       </c>
       <c r="F27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="G27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="I27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="K27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="L27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="N27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="9"/>
-        <v>43307</v>
+        <v>39707</v>
       </c>
       <c r="P27" s="9">
         <f t="shared" si="8"/>
-        <v>482684</v>
+        <v>439484</v>
       </c>
       <c r="Q27" s="2"/>
     </row>
@@ -2032,55 +2056,55 @@
       </c>
       <c r="D28" s="9">
         <f>D8-D27</f>
-        <v>-7307</v>
+        <v>-3707</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" ref="E28:O28" si="10">E8-E27</f>
-        <v>-12307</v>
+        <v>-8707</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="10"/>
-        <v>-13307</v>
+        <v>-9707</v>
       </c>
       <c r="G28" s="9">
         <f t="shared" si="10"/>
-        <v>-13307</v>
+        <v>-9707</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="10"/>
-        <v>-13307</v>
+        <v>-9707</v>
       </c>
       <c r="I28" s="9">
         <f t="shared" si="10"/>
-        <v>6693</v>
+        <v>10293</v>
       </c>
       <c r="J28" s="9">
         <f t="shared" si="10"/>
-        <v>6693</v>
+        <v>10293</v>
       </c>
       <c r="K28" s="9">
         <f t="shared" si="10"/>
-        <v>26693</v>
+        <v>30293</v>
       </c>
       <c r="L28" s="9">
         <f t="shared" si="10"/>
-        <v>26693</v>
+        <v>30293</v>
       </c>
       <c r="M28" s="9">
         <f t="shared" si="10"/>
-        <v>46693</v>
+        <v>50293</v>
       </c>
       <c r="N28" s="9">
         <f t="shared" si="10"/>
-        <v>46693</v>
+        <v>50293</v>
       </c>
       <c r="O28" s="9">
         <f t="shared" si="10"/>
-        <v>46693</v>
+        <v>50293</v>
       </c>
       <c r="P28" s="9">
         <f>P8-P27</f>
-        <v>147316</v>
+        <v>190516</v>
       </c>
       <c r="Q28" s="2"/>
     </row>
@@ -2145,13 +2169,25 @@
     <row r="32" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="D32" s="26">
+        <f>SUM(D27:F27)</f>
+        <v>82121</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="26">
+        <f>SUM(G27:I27)</f>
+        <v>119121</v>
+      </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="H32" s="26">
+        <f>SUM(J27:L27)</f>
+        <v>119121</v>
+      </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="J32" s="26">
+        <f>SUM(M27:O27)</f>
+        <v>119121</v>
+      </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -2160,7 +2196,25 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
-    <row r="34" spans="3:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="25">
+        <f>SUM(D28:F28)</f>
+        <v>-22121</v>
+      </c>
+      <c r="F33" s="25">
+        <f>SUM(G28:I28)</f>
+        <v>-9121</v>
+      </c>
+      <c r="H33" s="25">
+        <f>SUM(J28:L28)</f>
+        <v>70879</v>
+      </c>
+      <c r="J33" s="25" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">D18:O184= SUM(M28:O28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="8"/>
     </row>
   </sheetData>
